--- a/offline_heuristic_table.xlsx
+++ b/offline_heuristic_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\Research\CausalRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C29303-5E30-420E-925D-539558BEC458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0545D466-088F-4E17-9A6C-92A560E2443B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4356" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,15 +403,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="20.5703125" customWidth="1"/>
+    <col min="2" max="7" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -523,7 +523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -592,7 +592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -638,7 +638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -661,7 +661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -707,9 +707,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -730,9 +730,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -753,9 +753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
